--- a/Messungen/ImFreien/Messergebnisse.xlsx
+++ b/Messungen/ImFreien/Messergebnisse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Levin\Schule\JugendForscht\Messungen\ImFreien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E14B6-FADF-43CC-A849-9A77EBEC43AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D812955-7554-4E0B-83F6-E336FEC43F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="14520" windowWidth="29040" windowHeight="15840" xr2:uid="{7730BCC9-650B-44A2-BA96-52B856EA7E52}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{7730BCC9-650B-44A2-BA96-52B856EA7E52}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Abstand [m]</t>
   </si>
@@ -49,12 +49,33 @@
   <si>
     <t>Reihe 3</t>
   </si>
+  <si>
+    <t>Lautstärkeänderung</t>
+  </si>
+  <si>
+    <t>Änderung [dB]</t>
+  </si>
+  <si>
+    <t>Distanz 2 [m]</t>
+  </si>
+  <si>
+    <t>Distanz 1[m]</t>
+  </si>
+  <si>
+    <t>Mittelwert</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>AVG Median</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +105,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +154,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -120,30 +177,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="7"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
+    <cellStyle name="Ausgabe" xfId="5" builtinId="21"/>
+    <cellStyle name="Ergebnis" xfId="7" builtinId="25"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Überschrift 4" xfId="4" builtinId="19"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="6" builtinId="24"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2747,16 +2862,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3174</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>584199</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76253</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2783,16 +2898,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1586</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>144275</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>369886</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>165099</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3117,9 +3232,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1000F2B-3E51-40A7-8983-1314D1BA6293}">
-  <dimension ref="C5:F26"/>
+  <dimension ref="C5:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3127,15 +3244,15 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="D5" s="2" t="s">
+    <row r="5" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="3:6" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="3:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
@@ -3222,10 +3339,10 @@
       <c r="C12">
         <v>2.5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>-22.6342</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>-27.049199999999999</v>
       </c>
       <c r="F12">
@@ -3239,22 +3356,22 @@
       <c r="D13">
         <v>-27.732700000000001</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>-30.263999999999999</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>-22.6935</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="D18" s="2" t="s">
+    <row r="18" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="3:6" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="1" t="s">
+    <row r="19" spans="3:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D19" t="s">
@@ -3267,7 +3384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>0.6</v>
       </c>
@@ -3284,7 +3401,7 @@
         <v>14.368399999999999</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>1</v>
       </c>
@@ -3301,7 +3418,7 @@
         <v>18.5245</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>1.25</v>
       </c>
@@ -3318,7 +3435,7 @@
         <v>21.163799999999998</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>1.5</v>
       </c>
@@ -3335,7 +3452,7 @@
         <v>23.190100000000001</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>2</v>
       </c>
@@ -3352,15 +3469,15 @@
         <v>25.863399999999999</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>2.5</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <f t="shared" si="1"/>
         <v>22.6342</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <f t="shared" si="1"/>
         <v>27.049199999999999</v>
       </c>
@@ -3369,7 +3486,7 @@
         <v>27.6037</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>3</v>
       </c>
@@ -3377,20 +3494,185 @@
         <f t="shared" si="1"/>
         <v>27.732700000000001</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>30.263999999999999</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <f t="shared" si="1"/>
         <v>22.6935</v>
       </c>
     </row>
+    <row r="30" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="3:7" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="3:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <f>D11-D8</f>
+        <v>-5.5685000000000002</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:G34" si="2">E11-E8</f>
+        <v>-7.4757999999999996</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>-7.3388999999999989</v>
+      </c>
+      <c r="H34">
+        <f>AVERAGE(E34:G34)</f>
+        <v>-6.7943999999999996</v>
+      </c>
+      <c r="I34">
+        <f>MEDIAN(E34:G34)</f>
+        <v>-7.3388999999999989</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <v>1.25</v>
+      </c>
+      <c r="D35">
+        <v>2.5</v>
+      </c>
+      <c r="E35">
+        <f>D12-D9</f>
+        <v>-3.3744000000000014</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:G35" si="3">E12-E9</f>
+        <v>-5.6625999999999976</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>-6.4399000000000015</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:H36" si="4">AVERAGE(E35:G35)</f>
+        <v>-5.1589666666666671</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I36" si="5">MEDIAN(E35:G35)</f>
+        <v>-5.6625999999999976</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>1.5</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <f>D13-D10</f>
+        <v>-6.2406000000000006</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:G36" si="6">E13-E10</f>
+        <v>-7.8073999999999977</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>0.49660000000000082</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>-4.5171333333333328</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>-6.2406000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I38" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="I39" s="10">
+        <f>AVERAGE(I34:I36)</f>
+        <v>-6.4140333333333324</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="C30:G31"/>
   </mergeCells>
+  <conditionalFormatting sqref="E34:G36">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="-6"/>
+        <cfvo type="max"/>
+        <color rgb="FFC00000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="-6"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF9900"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Messungen/ImFreien/Messergebnisse.xlsx
+++ b/Messungen/ImFreien/Messergebnisse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Levin\Schule\JugendForscht\Messungen\ImFreien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D812955-7554-4E0B-83F6-E336FEC43F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE479C2B-B0EE-4E5D-88BE-FBB6EC808E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{7730BCC9-650B-44A2-BA96-52B856EA7E52}"/>
+    <workbookView xWindow="57480" yWindow="14520" windowWidth="29040" windowHeight="15840" xr2:uid="{7730BCC9-650B-44A2-BA96-52B856EA7E52}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -227,20 +219,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="7"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="7"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="6"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Ausgabe" xfId="5" builtinId="21"/>
@@ -2862,16 +2854,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>635001</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76253</xdr:rowOff>
+      <xdr:rowOff>92128</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2898,16 +2890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>369886</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>230186</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>87125</xdr:rowOff>
+      <xdr:rowOff>103000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3224,7 +3216,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3235,7 +3227,7 @@
   <dimension ref="C5:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="H7" sqref="H7:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3244,15 +3236,15 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="3:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="3:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
@@ -3265,7 +3257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>0.6</v>
       </c>
@@ -3278,8 +3270,12 @@
       <c r="F7">
         <v>-14.368399999999999</v>
       </c>
+      <c r="H7">
+        <f>AVERAGE(D7:F7)</f>
+        <v>-13.512766666666666</v>
+      </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>1</v>
       </c>
@@ -3292,8 +3288,12 @@
       <c r="F8">
         <v>-18.5245</v>
       </c>
+      <c r="H8">
+        <f>AVERAGE(D8:F8)</f>
+        <v>-18.215999999999998</v>
+      </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>1.25</v>
       </c>
@@ -3306,8 +3306,12 @@
       <c r="F9">
         <v>-21.163799999999998</v>
       </c>
+      <c r="H9">
+        <f>AVERAGE(D9:F9)</f>
+        <v>-20.603399999999997</v>
+      </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>1.5</v>
       </c>
@@ -3320,8 +3324,12 @@
       <c r="F10">
         <v>-23.190100000000001</v>
       </c>
+      <c r="H10">
+        <f>AVERAGE(D10:F10)</f>
+        <v>-22.3796</v>
+      </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>2</v>
       </c>
@@ -3334,8 +3342,12 @@
       <c r="F11">
         <v>-25.863399999999999</v>
       </c>
+      <c r="H11">
+        <f>AVERAGE(D11:F11)</f>
+        <v>-25.010400000000001</v>
+      </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>2.5</v>
       </c>
@@ -3348,8 +3360,12 @@
       <c r="F12">
         <v>-27.6037</v>
       </c>
+      <c r="H12">
+        <f>AVERAGE(D12:F12)</f>
+        <v>-25.762366666666665</v>
+      </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>3</v>
       </c>
@@ -3362,16 +3378,20 @@
       <c r="F13" s="1">
         <v>-22.6935</v>
       </c>
+      <c r="H13">
+        <f>AVERAGE(D13:F13)</f>
+        <v>-26.896733333333334</v>
+      </c>
     </row>
     <row r="18" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="3:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D19" t="s">
@@ -3504,33 +3524,33 @@
       </c>
     </row>
     <row r="30" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="3:7" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="3:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
@@ -3542,10 +3562,10 @@
       <c r="G33" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3634,12 +3654,12 @@
       </c>
     </row>
     <row r="38" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="3:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I39" s="10">
+      <c r="I39" s="7">
         <f>AVERAGE(I34:I36)</f>
         <v>-6.4140333333333324</v>
       </c>
@@ -3652,6 +3672,16 @@
     <mergeCell ref="C30:G31"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:G36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="-6"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF9900"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3662,18 +3692,11 @@
         <color rgb="FFFFC000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="-6"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF92D050"/>
-        <color rgb="FFFF9900"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H7 H8:H13" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Messungen/ImFreien/Messergebnisse.xlsx
+++ b/Messungen/ImFreien/Messergebnisse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Levin\Schule\JugendForscht\Messungen\ImFreien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE479C2B-B0EE-4E5D-88BE-FBB6EC808E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A48AEAD-5908-4713-8DCA-83D70A583591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="14520" windowWidth="29040" windowHeight="15840" xr2:uid="{7730BCC9-650B-44A2-BA96-52B856EA7E52}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" xr2:uid="{7730BCC9-650B-44A2-BA96-52B856EA7E52}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Abstand [m]</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>AVG Median</t>
+  </si>
+  <si>
+    <t>log(x)</t>
   </si>
 </sst>
 </file>
@@ -661,6 +664,113 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2615-4CF2-96DE-04EEECDBA44A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$7:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$7:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-13.779025007672869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18.215999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20.154200260161126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-21.737825181113621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-24.236599913279623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-26.174800173440751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-27.758425094393246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA66-4DFD-B417-267ACC841ADD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2854,16 +2964,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>635001</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>92128</xdr:rowOff>
+      <xdr:rowOff>82603</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2890,16 +3000,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>230186</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>258761</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>103000</xdr:rowOff>
+      <xdr:rowOff>96650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3227,7 +3337,7 @@
   <dimension ref="C5:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3236,14 +3346,14 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="3:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
@@ -3256,8 +3366,11 @@
       <c r="F6" t="s">
         <v>4</v>
       </c>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>0.6</v>
       </c>
@@ -3271,11 +3384,15 @@
         <v>-14.368399999999999</v>
       </c>
       <c r="H7">
-        <f>AVERAGE(D7:F7)</f>
+        <f t="shared" ref="H7:H13" si="0">AVERAGE(D7:F7)</f>
         <v>-13.512766666666666</v>
       </c>
+      <c r="I7">
+        <f>-20*LOG(C7)+$H$8</f>
+        <v>-13.779025007672869</v>
+      </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>1</v>
       </c>
@@ -3289,11 +3406,15 @@
         <v>-18.5245</v>
       </c>
       <c r="H8">
-        <f>AVERAGE(D8:F8)</f>
+        <f t="shared" si="0"/>
         <v>-18.215999999999998</v>
       </c>
+      <c r="I8">
+        <f>-20*LOG(C8)+$H$8</f>
+        <v>-18.215999999999998</v>
+      </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>1.25</v>
       </c>
@@ -3307,11 +3428,15 @@
         <v>-21.163799999999998</v>
       </c>
       <c r="H9">
-        <f>AVERAGE(D9:F9)</f>
+        <f t="shared" si="0"/>
         <v>-20.603399999999997</v>
       </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I13" si="1">-20*LOG(C9)+$H$8</f>
+        <v>-20.154200260161126</v>
+      </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>1.5</v>
       </c>
@@ -3325,11 +3450,15 @@
         <v>-23.190100000000001</v>
       </c>
       <c r="H10">
-        <f>AVERAGE(D10:F10)</f>
+        <f t="shared" si="0"/>
         <v>-22.3796</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>-21.737825181113621</v>
+      </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>2</v>
       </c>
@@ -3343,11 +3472,15 @@
         <v>-25.863399999999999</v>
       </c>
       <c r="H11">
-        <f>AVERAGE(D11:F11)</f>
+        <f t="shared" si="0"/>
         <v>-25.010400000000001</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-24.236599913279623</v>
+      </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>2.5</v>
       </c>
@@ -3361,11 +3494,15 @@
         <v>-27.6037</v>
       </c>
       <c r="H12">
-        <f>AVERAGE(D12:F12)</f>
+        <f t="shared" si="0"/>
         <v>-25.762366666666665</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>-26.174800173440751</v>
+      </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>3</v>
       </c>
@@ -3379,8 +3516,12 @@
         <v>-22.6935</v>
       </c>
       <c r="H13">
-        <f>AVERAGE(D13:F13)</f>
+        <f t="shared" si="0"/>
         <v>-26.896733333333334</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-27.758425094393246</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3413,11 +3554,11 @@
         <v>12.816000000000001</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:F20" si="0">-E7</f>
+        <f t="shared" ref="E20:F20" si="2">-E7</f>
         <v>13.353899999999999</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14.368399999999999</v>
       </c>
     </row>
@@ -3426,15 +3567,15 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:F26" si="1">-D8</f>
+        <f t="shared" ref="D21:F26" si="3">-D8</f>
         <v>17.604900000000001</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18.518599999999999</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18.5245</v>
       </c>
     </row>
@@ -3443,15 +3584,15 @@
         <v>1.25</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19.259799999999998</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.386600000000001</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.163799999999998</v>
       </c>
     </row>
@@ -3460,15 +3601,15 @@
         <v>1.5</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.492100000000001</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.456600000000002</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23.190100000000001</v>
       </c>
     </row>
@@ -3477,15 +3618,15 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23.173400000000001</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25.994399999999999</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25.863399999999999</v>
       </c>
     </row>
@@ -3494,15 +3635,15 @@
         <v>2.5</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.6342</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27.049199999999999</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27.6037</v>
       </c>
     </row>
@@ -3511,15 +3652,15 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27.732700000000001</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30.263999999999999</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.6935</v>
       </c>
     </row>
@@ -3581,11 +3722,11 @@
         <v>-5.5685000000000002</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:G34" si="2">E11-E8</f>
+        <f t="shared" ref="F34:G34" si="4">E11-E8</f>
         <v>-7.4757999999999996</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.3388999999999989</v>
       </c>
       <c r="H34">
@@ -3609,19 +3750,19 @@
         <v>-3.3744000000000014</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:G35" si="3">E12-E9</f>
+        <f t="shared" ref="F35:G35" si="5">E12-E9</f>
         <v>-5.6625999999999976</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6.4399000000000015</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H36" si="4">AVERAGE(E35:G35)</f>
+        <f t="shared" ref="H35:H36" si="6">AVERAGE(E35:G35)</f>
         <v>-5.1589666666666671</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:I36" si="5">MEDIAN(E35:G35)</f>
+        <f t="shared" ref="I35:I36" si="7">MEDIAN(E35:G35)</f>
         <v>-5.6625999999999976</v>
       </c>
     </row>
@@ -3637,19 +3778,19 @@
         <v>-6.2406000000000006</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:G36" si="6">E13-E10</f>
+        <f t="shared" ref="F36:G36" si="8">E13-E10</f>
         <v>-7.8073999999999977</v>
       </c>
       <c r="G36">
+        <f t="shared" si="8"/>
+        <v>0.49660000000000082</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="6"/>
-        <v>0.49660000000000082</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="4"/>
         <v>-4.5171333333333328</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.2406000000000006</v>
       </c>
     </row>
